--- a/data/TC003.xlsx
+++ b/data/TC003.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6669215-DB1B-46A7-92D8-FF26B63FE39F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="2532" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="2535" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -65,12 +64,15 @@
   </si>
   <si>
     <t>TestLeaf</t>
+  </si>
+  <si>
+    <t>DemoCSR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,23 +241,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -291,23 +276,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -483,24 +451,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -540,9 +508,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -562,8 +530,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -571,24 +539,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
